--- a/users-done.xlsx
+++ b/users-done.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="1238">
   <si>
     <t>username</t>
   </si>
@@ -1346,6 +1346,2385 @@
   </si>
   <si>
     <t>AGABK29358</t>
+  </si>
+  <si>
+    <t>Nadine Kris</t>
+  </si>
+  <si>
+    <t>jm7uDXUVBhOGyS1</t>
+  </si>
+  <si>
+    <t>cleve.greenfelder@gmail.com</t>
+  </si>
+  <si>
+    <t>773439590423</t>
+  </si>
+  <si>
+    <t>43296804</t>
+  </si>
+  <si>
+    <t>Roderick Quitzon</t>
+  </si>
+  <si>
+    <t>AGABK29359</t>
+  </si>
+  <si>
+    <t>Marian Kshlerin</t>
+  </si>
+  <si>
+    <t>CCFFOicrS8Ai5LW</t>
+  </si>
+  <si>
+    <t>micah_terry@hotmail.com</t>
+  </si>
+  <si>
+    <t>742804732476</t>
+  </si>
+  <si>
+    <t>51000172</t>
+  </si>
+  <si>
+    <t>Willie Quigley</t>
+  </si>
+  <si>
+    <t>AGABK29360</t>
+  </si>
+  <si>
+    <t>Ted Dibbert</t>
+  </si>
+  <si>
+    <t>GeUMkp78cswKkfg</t>
+  </si>
+  <si>
+    <t>eudora_casper8@yahoo.com</t>
+  </si>
+  <si>
+    <t>084707865551</t>
+  </si>
+  <si>
+    <t>87424034</t>
+  </si>
+  <si>
+    <t>Lawrence Bergnaum DVM</t>
+  </si>
+  <si>
+    <t>AGABK29361</t>
+  </si>
+  <si>
+    <t>Glenda Gislason II</t>
+  </si>
+  <si>
+    <t>BKSyDPmm8GebIFU</t>
+  </si>
+  <si>
+    <t>jasen40@yahoo.com</t>
+  </si>
+  <si>
+    <t>676705849167</t>
+  </si>
+  <si>
+    <t>97902924</t>
+  </si>
+  <si>
+    <t>Penny Rodriguez</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>AGABK29362</t>
+  </si>
+  <si>
+    <t>Pedro Gleason</t>
+  </si>
+  <si>
+    <t>8ydZSVTYHrfJO90</t>
+  </si>
+  <si>
+    <t>jeanie_willms@hotmail.com</t>
+  </si>
+  <si>
+    <t>358170684026</t>
+  </si>
+  <si>
+    <t>35909489</t>
+  </si>
+  <si>
+    <t>Danielle Boehm</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>AGABK29363</t>
+  </si>
+  <si>
+    <t>Kelly Roberts</t>
+  </si>
+  <si>
+    <t>MroXW_zkGCdDUOD</t>
+  </si>
+  <si>
+    <t>lester_kemmer@yahoo.com</t>
+  </si>
+  <si>
+    <t>166910055322</t>
+  </si>
+  <si>
+    <t>38864886</t>
+  </si>
+  <si>
+    <t>Rosalie Hilll</t>
+  </si>
+  <si>
+    <t>AGABK29364</t>
+  </si>
+  <si>
+    <t>Jasmine Padberg</t>
+  </si>
+  <si>
+    <t>n5DZQWuE3peEEOc</t>
+  </si>
+  <si>
+    <t>jalyn59@hotmail.com</t>
+  </si>
+  <si>
+    <t>468463475689</t>
+  </si>
+  <si>
+    <t>36036930</t>
+  </si>
+  <si>
+    <t>Bertha Waters V</t>
+  </si>
+  <si>
+    <t>44000</t>
+  </si>
+  <si>
+    <t>AGABK29365</t>
+  </si>
+  <si>
+    <t>Nina Steuber</t>
+  </si>
+  <si>
+    <t>LGFxoiqFx13adgC</t>
+  </si>
+  <si>
+    <t>lorenza64@hotmail.com</t>
+  </si>
+  <si>
+    <t>144119899484</t>
+  </si>
+  <si>
+    <t>68390484</t>
+  </si>
+  <si>
+    <t>Nellie Muller</t>
+  </si>
+  <si>
+    <t>57000</t>
+  </si>
+  <si>
+    <t>AGABK29366</t>
+  </si>
+  <si>
+    <t>Francis Hane</t>
+  </si>
+  <si>
+    <t>MHI7_90NZ61AfJ2</t>
+  </si>
+  <si>
+    <t>francisca.lesch8@hotmail.com</t>
+  </si>
+  <si>
+    <t>943454126059</t>
+  </si>
+  <si>
+    <t>66436425</t>
+  </si>
+  <si>
+    <t>Margaret Mohr</t>
+  </si>
+  <si>
+    <t>AGABK29367</t>
+  </si>
+  <si>
+    <t>Glenda Conroy PhD</t>
+  </si>
+  <si>
+    <t>EcL2_gQu_J4GbX5</t>
+  </si>
+  <si>
+    <t>jacquelyn95@gmail.com</t>
+  </si>
+  <si>
+    <t>155952572765</t>
+  </si>
+  <si>
+    <t>97777161</t>
+  </si>
+  <si>
+    <t>Ms. Darlene Wehner</t>
+  </si>
+  <si>
+    <t>93000</t>
+  </si>
+  <si>
+    <t>AGABK29368</t>
+  </si>
+  <si>
+    <t>Joshua Dare</t>
+  </si>
+  <si>
+    <t>iZEbZCWp7V3mO_1</t>
+  </si>
+  <si>
+    <t>blanche.ernser@yahoo.com</t>
+  </si>
+  <si>
+    <t>436854340668</t>
+  </si>
+  <si>
+    <t>53196524</t>
+  </si>
+  <si>
+    <t>Gene Rowe</t>
+  </si>
+  <si>
+    <t>AGABK29369</t>
+  </si>
+  <si>
+    <t>Mitchell Smitham</t>
+  </si>
+  <si>
+    <t>VTMi5W2UDqsLZeq</t>
+  </si>
+  <si>
+    <t>joannie.kunde85@gmail.com</t>
+  </si>
+  <si>
+    <t>990584140778</t>
+  </si>
+  <si>
+    <t>52525885</t>
+  </si>
+  <si>
+    <t>Ricardo Buckridge I</t>
+  </si>
+  <si>
+    <t>AGABK29370</t>
+  </si>
+  <si>
+    <t>Mabel Rowe</t>
+  </si>
+  <si>
+    <t>hdTkUMbnNwdRtuP</t>
+  </si>
+  <si>
+    <t>etha.terry@gmail.com</t>
+  </si>
+  <si>
+    <t>080627563611</t>
+  </si>
+  <si>
+    <t>62697026</t>
+  </si>
+  <si>
+    <t>Dr. Alexandra Zieme</t>
+  </si>
+  <si>
+    <t>AGABK29371</t>
+  </si>
+  <si>
+    <t>Ms. Andrew Halvorson</t>
+  </si>
+  <si>
+    <t>AXKBRMZIqbznxvn</t>
+  </si>
+  <si>
+    <t>rosina.jenkins36@hotmail.com</t>
+  </si>
+  <si>
+    <t>527530956622</t>
+  </si>
+  <si>
+    <t>57963295</t>
+  </si>
+  <si>
+    <t>Gretchen Lakin</t>
+  </si>
+  <si>
+    <t>AGABK29372</t>
+  </si>
+  <si>
+    <t>Angie Stroman</t>
+  </si>
+  <si>
+    <t>Es4RghvbanMmPpi</t>
+  </si>
+  <si>
+    <t>howard63@gmail.com</t>
+  </si>
+  <si>
+    <t>130182045429</t>
+  </si>
+  <si>
+    <t>34879005</t>
+  </si>
+  <si>
+    <t>Malcolm Kilback</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>AGABK29373</t>
+  </si>
+  <si>
+    <t>Gerald Nader</t>
+  </si>
+  <si>
+    <t>9BJkkO7FG7ewcrU</t>
+  </si>
+  <si>
+    <t>madonna.williamson94@hotmail.com</t>
+  </si>
+  <si>
+    <t>665641954044</t>
+  </si>
+  <si>
+    <t>59663375</t>
+  </si>
+  <si>
+    <t>Jerome Luettgen MD</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>AGABK29374</t>
+  </si>
+  <si>
+    <t>Eddie Bradtke</t>
+  </si>
+  <si>
+    <t>MH0ub5pH9fUZV43</t>
+  </si>
+  <si>
+    <t>osbaldo27@gmail.com</t>
+  </si>
+  <si>
+    <t>542423788221</t>
+  </si>
+  <si>
+    <t>24271740</t>
+  </si>
+  <si>
+    <t>Miss Nadine Rau</t>
+  </si>
+  <si>
+    <t>AGABK29375</t>
+  </si>
+  <si>
+    <t>Pauline Abernathy</t>
+  </si>
+  <si>
+    <t>jKq3k58vSi_DnaF</t>
+  </si>
+  <si>
+    <t>sherman_bins26@gmail.com</t>
+  </si>
+  <si>
+    <t>176856769231</t>
+  </si>
+  <si>
+    <t>36786488</t>
+  </si>
+  <si>
+    <t>Agnes Grimes</t>
+  </si>
+  <si>
+    <t>AGABK29376</t>
+  </si>
+  <si>
+    <t>Mrs. Henry Braun</t>
+  </si>
+  <si>
+    <t>S64KsiZcql7m1Vk</t>
+  </si>
+  <si>
+    <t>brooklyn83@yahoo.com</t>
+  </si>
+  <si>
+    <t>284302805410</t>
+  </si>
+  <si>
+    <t>63515449</t>
+  </si>
+  <si>
+    <t>Elmer Wilkinson</t>
+  </si>
+  <si>
+    <t>AGABK29377</t>
+  </si>
+  <si>
+    <t>Edith O'Reilly</t>
+  </si>
+  <si>
+    <t>nnEcAiMAlMkKmWJ</t>
+  </si>
+  <si>
+    <t>jannie74@gmail.com</t>
+  </si>
+  <si>
+    <t>752867037923</t>
+  </si>
+  <si>
+    <t>10326261</t>
+  </si>
+  <si>
+    <t>Estelle Russel</t>
+  </si>
+  <si>
+    <t>AGABK29378</t>
+  </si>
+  <si>
+    <t>Dominick Metz I</t>
+  </si>
+  <si>
+    <t>iLHSIe7olpQiVGU</t>
+  </si>
+  <si>
+    <t>jerrold_homenick@hotmail.com</t>
+  </si>
+  <si>
+    <t>303839708249</t>
+  </si>
+  <si>
+    <t>40485750</t>
+  </si>
+  <si>
+    <t>Randy Crooks</t>
+  </si>
+  <si>
+    <t>AGABK29379</t>
+  </si>
+  <si>
+    <t>Christine Muller</t>
+  </si>
+  <si>
+    <t>W19C9Mv6ykfNNfP</t>
+  </si>
+  <si>
+    <t>kiara.reilly14@yahoo.com</t>
+  </si>
+  <si>
+    <t>272699642995</t>
+  </si>
+  <si>
+    <t>87772974</t>
+  </si>
+  <si>
+    <t>Eunice Emmerich</t>
+  </si>
+  <si>
+    <t>66000</t>
+  </si>
+  <si>
+    <t>AGABK29380</t>
+  </si>
+  <si>
+    <t>Brad Lehner</t>
+  </si>
+  <si>
+    <t>gbjn9u8OUqiiObu</t>
+  </si>
+  <si>
+    <t>john.stoltenberg13@gmail.com</t>
+  </si>
+  <si>
+    <t>180848198938</t>
+  </si>
+  <si>
+    <t>97607300</t>
+  </si>
+  <si>
+    <t>Raquel Beatty PhD</t>
+  </si>
+  <si>
+    <t>68000</t>
+  </si>
+  <si>
+    <t>AGABK29381</t>
+  </si>
+  <si>
+    <t>Tim Medhurst</t>
+  </si>
+  <si>
+    <t>gVmVWXD8royOdAA</t>
+  </si>
+  <si>
+    <t>cordelia.pouros@hotmail.com</t>
+  </si>
+  <si>
+    <t>298289548599</t>
+  </si>
+  <si>
+    <t>37084429</t>
+  </si>
+  <si>
+    <t>Roman Beier</t>
+  </si>
+  <si>
+    <t>AGABK29382</t>
+  </si>
+  <si>
+    <t>Javier Stehr</t>
+  </si>
+  <si>
+    <t>TfQWYqPU9B_INxn</t>
+  </si>
+  <si>
+    <t>theodore_schiller99@gmail.com</t>
+  </si>
+  <si>
+    <t>708621603169</t>
+  </si>
+  <si>
+    <t>75424790</t>
+  </si>
+  <si>
+    <t>Ora Crona</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>AGABK29383</t>
+  </si>
+  <si>
+    <t>Hannah Schroeder</t>
+  </si>
+  <si>
+    <t>O6P8PdC9y98VNAy</t>
+  </si>
+  <si>
+    <t>elfrieda_koelpin@hotmail.com</t>
+  </si>
+  <si>
+    <t>595326134740</t>
+  </si>
+  <si>
+    <t>24711216</t>
+  </si>
+  <si>
+    <t>Jerry Swaniawski</t>
+  </si>
+  <si>
+    <t>75000</t>
+  </si>
+  <si>
+    <t>AGABK29384</t>
+  </si>
+  <si>
+    <t>Bradford Friesen</t>
+  </si>
+  <si>
+    <t>SiEqUpCvml5GtrP</t>
+  </si>
+  <si>
+    <t>richard_turcotte@yahoo.com</t>
+  </si>
+  <si>
+    <t>607036914361</t>
+  </si>
+  <si>
+    <t>33111187</t>
+  </si>
+  <si>
+    <t>Ramona Metz</t>
+  </si>
+  <si>
+    <t>83000</t>
+  </si>
+  <si>
+    <t>AGABK29385</t>
+  </si>
+  <si>
+    <t>Kristie Sauer</t>
+  </si>
+  <si>
+    <t>xv3U2bKdq5Xd_Ph</t>
+  </si>
+  <si>
+    <t>tate.volkman@gmail.com</t>
+  </si>
+  <si>
+    <t>923773089677</t>
+  </si>
+  <si>
+    <t>70145642</t>
+  </si>
+  <si>
+    <t>Mrs. Gilbert Beatty</t>
+  </si>
+  <si>
+    <t>AGABK29386</t>
+  </si>
+  <si>
+    <t>Molly Turner</t>
+  </si>
+  <si>
+    <t>WQSxE2RLnGtL9IK</t>
+  </si>
+  <si>
+    <t>myriam_stoltenberg@hotmail.com</t>
+  </si>
+  <si>
+    <t>782136551553</t>
+  </si>
+  <si>
+    <t>68606881</t>
+  </si>
+  <si>
+    <t>Dr. Justin Rowe</t>
+  </si>
+  <si>
+    <t>AGABK29387</t>
+  </si>
+  <si>
+    <t>Allan Lebsack</t>
+  </si>
+  <si>
+    <t>IlRA0GhyCZCUYJV</t>
+  </si>
+  <si>
+    <t>payton57@yahoo.com</t>
+  </si>
+  <si>
+    <t>157695212821</t>
+  </si>
+  <si>
+    <t>50039890</t>
+  </si>
+  <si>
+    <t>Joan Cormier</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>AGABK29388</t>
+  </si>
+  <si>
+    <t>Dr. Jeffery Bogan</t>
+  </si>
+  <si>
+    <t>vYseQGElnSDh8Vq</t>
+  </si>
+  <si>
+    <t>cary_kovacek80@hotmail.com</t>
+  </si>
+  <si>
+    <t>027415219641</t>
+  </si>
+  <si>
+    <t>02276139</t>
+  </si>
+  <si>
+    <t>Lana Mraz</t>
+  </si>
+  <si>
+    <t>AGABK29389</t>
+  </si>
+  <si>
+    <t>Mrs. Jessica Koss</t>
+  </si>
+  <si>
+    <t>YQT3d8FAiKPsG5j</t>
+  </si>
+  <si>
+    <t>mina27@yahoo.com</t>
+  </si>
+  <si>
+    <t>810795483971</t>
+  </si>
+  <si>
+    <t>96902290</t>
+  </si>
+  <si>
+    <t>Angie Hirthe</t>
+  </si>
+  <si>
+    <t>AGABK29390</t>
+  </si>
+  <si>
+    <t>Megan Beier</t>
+  </si>
+  <si>
+    <t>6s1yC9NyhoWnOVU</t>
+  </si>
+  <si>
+    <t>gerald.howe@hotmail.com</t>
+  </si>
+  <si>
+    <t>639017704116</t>
+  </si>
+  <si>
+    <t>56744058</t>
+  </si>
+  <si>
+    <t>Rhonda Boyle DDS</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>AGABK29391</t>
+  </si>
+  <si>
+    <t>Eunice Schroeder MD</t>
+  </si>
+  <si>
+    <t>GSKTwkI1yMirIQU</t>
+  </si>
+  <si>
+    <t>foster.metz61@hotmail.com</t>
+  </si>
+  <si>
+    <t>816962079825</t>
+  </si>
+  <si>
+    <t>53523671</t>
+  </si>
+  <si>
+    <t>Helen Torphy</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>AGABK29392</t>
+  </si>
+  <si>
+    <t>Annie Ortiz</t>
+  </si>
+  <si>
+    <t>v44zhKenCv2qomW</t>
+  </si>
+  <si>
+    <t>brittany32@hotmail.com</t>
+  </si>
+  <si>
+    <t>083492698882</t>
+  </si>
+  <si>
+    <t>59039653</t>
+  </si>
+  <si>
+    <t>Rodolfo Robel</t>
+  </si>
+  <si>
+    <t>77000</t>
+  </si>
+  <si>
+    <t>AGABK29393</t>
+  </si>
+  <si>
+    <t>Jermaine Crooks V</t>
+  </si>
+  <si>
+    <t>d3vqHdZn7sYeUZ6</t>
+  </si>
+  <si>
+    <t>mathilde.brown70@hotmail.com</t>
+  </si>
+  <si>
+    <t>285757639948</t>
+  </si>
+  <si>
+    <t>81938174</t>
+  </si>
+  <si>
+    <t>Guadalupe Bernhard</t>
+  </si>
+  <si>
+    <t>69000</t>
+  </si>
+  <si>
+    <t>AGABK29394</t>
+  </si>
+  <si>
+    <t>Mandy Bode</t>
+  </si>
+  <si>
+    <t>eYYiyPLqjRpL_eS</t>
+  </si>
+  <si>
+    <t>nigel_lubowitz@hotmail.com</t>
+  </si>
+  <si>
+    <t>390019714749</t>
+  </si>
+  <si>
+    <t>91264831</t>
+  </si>
+  <si>
+    <t>Sally O'Reilly PhD</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>AGABK29395</t>
+  </si>
+  <si>
+    <t>Hannah Rowe</t>
+  </si>
+  <si>
+    <t>GQMhzX1b_36pPi5</t>
+  </si>
+  <si>
+    <t>jaeden.dickens@gmail.com</t>
+  </si>
+  <si>
+    <t>627624242604</t>
+  </si>
+  <si>
+    <t>41410440</t>
+  </si>
+  <si>
+    <t>Marvin Romaguera</t>
+  </si>
+  <si>
+    <t>AGABK29396</t>
+  </si>
+  <si>
+    <t>John Kiehn</t>
+  </si>
+  <si>
+    <t>6aIaOYcIzoecHgC</t>
+  </si>
+  <si>
+    <t>alek9@gmail.com</t>
+  </si>
+  <si>
+    <t>562573568308</t>
+  </si>
+  <si>
+    <t>47948142</t>
+  </si>
+  <si>
+    <t>Felix Bergstrom</t>
+  </si>
+  <si>
+    <t>AGABK29397</t>
+  </si>
+  <si>
+    <t>Irene Gulgowski II</t>
+  </si>
+  <si>
+    <t>59h7S6sdMZqSV3h</t>
+  </si>
+  <si>
+    <t>laverna78@yahoo.com</t>
+  </si>
+  <si>
+    <t>145032533450</t>
+  </si>
+  <si>
+    <t>24447672</t>
+  </si>
+  <si>
+    <t>Mr. Shelia Blanda</t>
+  </si>
+  <si>
+    <t>AGABK29398</t>
+  </si>
+  <si>
+    <t>Randall Hirthe</t>
+  </si>
+  <si>
+    <t>4jTSlWv2gxmVZQD</t>
+  </si>
+  <si>
+    <t>monte_daugherty@hotmail.com</t>
+  </si>
+  <si>
+    <t>771313013104</t>
+  </si>
+  <si>
+    <t>75756046</t>
+  </si>
+  <si>
+    <t>Rita Wolff I</t>
+  </si>
+  <si>
+    <t>AGABK29399</t>
+  </si>
+  <si>
+    <t>Wilbur Cole</t>
+  </si>
+  <si>
+    <t>C74JIw7kYHW0bQd</t>
+  </si>
+  <si>
+    <t>flavio32@gmail.com</t>
+  </si>
+  <si>
+    <t>672087293755</t>
+  </si>
+  <si>
+    <t>25025484</t>
+  </si>
+  <si>
+    <t>Mr. Willie Rowe</t>
+  </si>
+  <si>
+    <t>AGABK29400</t>
+  </si>
+  <si>
+    <t>Dr. Malcolm Kshlerin</t>
+  </si>
+  <si>
+    <t>I3v3fijrxXfK3m2</t>
+  </si>
+  <si>
+    <t>gaetano_streich@hotmail.com</t>
+  </si>
+  <si>
+    <t>563472401529</t>
+  </si>
+  <si>
+    <t>29821913</t>
+  </si>
+  <si>
+    <t>Gustavo Wisoky</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>AGABK29401</t>
+  </si>
+  <si>
+    <t>Terri Oberbrunner</t>
+  </si>
+  <si>
+    <t>VwAkJobqxBDLCDf</t>
+  </si>
+  <si>
+    <t>donnell.halvorson@yahoo.com</t>
+  </si>
+  <si>
+    <t>413112156527</t>
+  </si>
+  <si>
+    <t>76274790</t>
+  </si>
+  <si>
+    <t>Connie Lebsack II</t>
+  </si>
+  <si>
+    <t>84000</t>
+  </si>
+  <si>
+    <t>AGABK29402</t>
+  </si>
+  <si>
+    <t>Marty Veum</t>
+  </si>
+  <si>
+    <t>iCL2oFczQVArV7z</t>
+  </si>
+  <si>
+    <t>raphael_schaefer99@hotmail.com</t>
+  </si>
+  <si>
+    <t>346504870661</t>
+  </si>
+  <si>
+    <t>41093593</t>
+  </si>
+  <si>
+    <t>Amanda Keebler</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>AGABK29403</t>
+  </si>
+  <si>
+    <t>Monica Prohaska</t>
+  </si>
+  <si>
+    <t>C93Adkqi7AKafkX</t>
+  </si>
+  <si>
+    <t>elmo_gibson31@yahoo.com</t>
+  </si>
+  <si>
+    <t>337599729197</t>
+  </si>
+  <si>
+    <t>28902702</t>
+  </si>
+  <si>
+    <t>Nathaniel Haag</t>
+  </si>
+  <si>
+    <t>45000</t>
+  </si>
+  <si>
+    <t>AGABK29404</t>
+  </si>
+  <si>
+    <t>Delores Morar DVM</t>
+  </si>
+  <si>
+    <t>jgNvw6AwlTfbEG_</t>
+  </si>
+  <si>
+    <t>dovie98@yahoo.com</t>
+  </si>
+  <si>
+    <t>723713715912</t>
+  </si>
+  <si>
+    <t>29083457</t>
+  </si>
+  <si>
+    <t>Marshall Walsh</t>
+  </si>
+  <si>
+    <t>62000</t>
+  </si>
+  <si>
+    <t>AGABK29405</t>
+  </si>
+  <si>
+    <t>Linda Rolfson</t>
+  </si>
+  <si>
+    <t>zFL_I9eNWz7wl96</t>
+  </si>
+  <si>
+    <t>joyce_veum@hotmail.com</t>
+  </si>
+  <si>
+    <t>614325738216</t>
+  </si>
+  <si>
+    <t>52854328</t>
+  </si>
+  <si>
+    <t>Robert Brekke</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>AGABK29406</t>
+  </si>
+  <si>
+    <t>Miss Anna Prosacco</t>
+  </si>
+  <si>
+    <t>KDZ0Zg2V0A02DYu</t>
+  </si>
+  <si>
+    <t>libbie_schumm53@hotmail.com</t>
+  </si>
+  <si>
+    <t>397509380590</t>
+  </si>
+  <si>
+    <t>21732305</t>
+  </si>
+  <si>
+    <t>Belinda Grady</t>
+  </si>
+  <si>
+    <t>AGABK29407</t>
+  </si>
+  <si>
+    <t>Adrian Nolan</t>
+  </si>
+  <si>
+    <t>rc_OG2d1wRG_TnA</t>
+  </si>
+  <si>
+    <t>viviane15@gmail.com</t>
+  </si>
+  <si>
+    <t>468896014398</t>
+  </si>
+  <si>
+    <t>23702821</t>
+  </si>
+  <si>
+    <t>Miss Annette Emmerich</t>
+  </si>
+  <si>
+    <t>AGABK29408</t>
+  </si>
+  <si>
+    <t>Daniel Walsh</t>
+  </si>
+  <si>
+    <t>VBUyAquA8kxWc2v</t>
+  </si>
+  <si>
+    <t>dovie_littel@hotmail.com</t>
+  </si>
+  <si>
+    <t>979995207919</t>
+  </si>
+  <si>
+    <t>11496181</t>
+  </si>
+  <si>
+    <t>Vicki Tillman</t>
+  </si>
+  <si>
+    <t>AGABK29409</t>
+  </si>
+  <si>
+    <t>Luz Collier</t>
+  </si>
+  <si>
+    <t>5qyOzHKR5rydyw9</t>
+  </si>
+  <si>
+    <t>rafaela41@yahoo.com</t>
+  </si>
+  <si>
+    <t>619976311634</t>
+  </si>
+  <si>
+    <t>86711036</t>
+  </si>
+  <si>
+    <t>Robin Kertzmann</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>AGABK29410</t>
+  </si>
+  <si>
+    <t>Jana Mosciski</t>
+  </si>
+  <si>
+    <t>zFSYhF1WtnuInHN</t>
+  </si>
+  <si>
+    <t>janick95@yahoo.com</t>
+  </si>
+  <si>
+    <t>400838803860</t>
+  </si>
+  <si>
+    <t>92197214</t>
+  </si>
+  <si>
+    <t>Mr. Jody Spencer</t>
+  </si>
+  <si>
+    <t>79000</t>
+  </si>
+  <si>
+    <t>AGABK29411</t>
+  </si>
+  <si>
+    <t>Jeannie Schaden</t>
+  </si>
+  <si>
+    <t>5sTQIn9GlZW04Cm</t>
+  </si>
+  <si>
+    <t>adolf10@gmail.com</t>
+  </si>
+  <si>
+    <t>946443029557</t>
+  </si>
+  <si>
+    <t>91315949</t>
+  </si>
+  <si>
+    <t>Sherman Bartoletti</t>
+  </si>
+  <si>
+    <t>AGABK29412</t>
+  </si>
+  <si>
+    <t>Manuel Collins</t>
+  </si>
+  <si>
+    <t>O4gG_5ksvszOWs0</t>
+  </si>
+  <si>
+    <t>yazmin48@gmail.com</t>
+  </si>
+  <si>
+    <t>187266490422</t>
+  </si>
+  <si>
+    <t>46031232</t>
+  </si>
+  <si>
+    <t>Margarita Mosciski</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>AGABK29413</t>
+  </si>
+  <si>
+    <t>Kelli Bailey</t>
+  </si>
+  <si>
+    <t>hNWqdd8QbS4ldSd</t>
+  </si>
+  <si>
+    <t>aida_bailey@gmail.com</t>
+  </si>
+  <si>
+    <t>225542997543</t>
+  </si>
+  <si>
+    <t>01519799</t>
+  </si>
+  <si>
+    <t>Earl Watsica I</t>
+  </si>
+  <si>
+    <t>AGABK29414</t>
+  </si>
+  <si>
+    <t>Glenn Schmidt</t>
+  </si>
+  <si>
+    <t>NCzL2EUbp5eSb33</t>
+  </si>
+  <si>
+    <t>delphine_roob17@yahoo.com</t>
+  </si>
+  <si>
+    <t>461647227985</t>
+  </si>
+  <si>
+    <t>16389423</t>
+  </si>
+  <si>
+    <t>Ada Deckow</t>
+  </si>
+  <si>
+    <t>AGABK29415</t>
+  </si>
+  <si>
+    <t>Franklin Dare</t>
+  </si>
+  <si>
+    <t>xBrsXRyU0VWIuPT</t>
+  </si>
+  <si>
+    <t>jaren55@hotmail.com</t>
+  </si>
+  <si>
+    <t>592251681186</t>
+  </si>
+  <si>
+    <t>01415584</t>
+  </si>
+  <si>
+    <t>Mrs. Trevor Kovacek</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>AGABK29416</t>
+  </si>
+  <si>
+    <t>Nichole Ward</t>
+  </si>
+  <si>
+    <t>ysOynZTl1QkvF1F</t>
+  </si>
+  <si>
+    <t>micah_ohara@hotmail.com</t>
+  </si>
+  <si>
+    <t>427786189450</t>
+  </si>
+  <si>
+    <t>02213786</t>
+  </si>
+  <si>
+    <t>Vivian Lindgren</t>
+  </si>
+  <si>
+    <t>AGABK29417</t>
+  </si>
+  <si>
+    <t>Aaron Pollich</t>
+  </si>
+  <si>
+    <t>zTVMboNLboCGZpx</t>
+  </si>
+  <si>
+    <t>gavin63@hotmail.com</t>
+  </si>
+  <si>
+    <t>530947613378</t>
+  </si>
+  <si>
+    <t>46457085</t>
+  </si>
+  <si>
+    <t>Neil Emmerich</t>
+  </si>
+  <si>
+    <t>AGABK29418</t>
+  </si>
+  <si>
+    <t>Muriel Doyle</t>
+  </si>
+  <si>
+    <t>080QIf_jWJJcG8P</t>
+  </si>
+  <si>
+    <t>dolores48@gmail.com</t>
+  </si>
+  <si>
+    <t>855035867410</t>
+  </si>
+  <si>
+    <t>97357596</t>
+  </si>
+  <si>
+    <t>Meghan Gutkowski</t>
+  </si>
+  <si>
+    <t>AGABK29419</t>
+  </si>
+  <si>
+    <t>Josefina Von</t>
+  </si>
+  <si>
+    <t>dg0EA2jb0FGRQ_d</t>
+  </si>
+  <si>
+    <t>reanna49@yahoo.com</t>
+  </si>
+  <si>
+    <t>383742782410</t>
+  </si>
+  <si>
+    <t>43393416</t>
+  </si>
+  <si>
+    <t>Paul Douglas</t>
+  </si>
+  <si>
+    <t>71000</t>
+  </si>
+  <si>
+    <t>AGABK29420</t>
+  </si>
+  <si>
+    <t>Mr. Amanda Howe</t>
+  </si>
+  <si>
+    <t>WeNhOcDGleerp5_</t>
+  </si>
+  <si>
+    <t>buddy94@hotmail.com</t>
+  </si>
+  <si>
+    <t>117552528461</t>
+  </si>
+  <si>
+    <t>86344710</t>
+  </si>
+  <si>
+    <t>Mrs. Dominic Altenwerth</t>
+  </si>
+  <si>
+    <t>AGABK29421</t>
+  </si>
+  <si>
+    <t>Marty Welch</t>
+  </si>
+  <si>
+    <t>AxKbngjoTpgi6aY</t>
+  </si>
+  <si>
+    <t>lindsay.berge@gmail.com</t>
+  </si>
+  <si>
+    <t>575912611997</t>
+  </si>
+  <si>
+    <t>91559871</t>
+  </si>
+  <si>
+    <t>Kendra Paucek</t>
+  </si>
+  <si>
+    <t>AGABK29422</t>
+  </si>
+  <si>
+    <t>Christine Berge</t>
+  </si>
+  <si>
+    <t>YgrNFjLQoKt__4s</t>
+  </si>
+  <si>
+    <t>cletus34@gmail.com</t>
+  </si>
+  <si>
+    <t>567179809454</t>
+  </si>
+  <si>
+    <t>52435821</t>
+  </si>
+  <si>
+    <t>Karl Keebler</t>
+  </si>
+  <si>
+    <t>AGABK29423</t>
+  </si>
+  <si>
+    <t>Cedric Nicolas MD</t>
+  </si>
+  <si>
+    <t>aGpoJRVshppXqZA</t>
+  </si>
+  <si>
+    <t>jermaine.hodkiewicz56@hotmail.com</t>
+  </si>
+  <si>
+    <t>438748482196</t>
+  </si>
+  <si>
+    <t>62218387</t>
+  </si>
+  <si>
+    <t>Benjamin Witting</t>
+  </si>
+  <si>
+    <t>AGABK29424</t>
+  </si>
+  <si>
+    <t>Robyn Schultz</t>
+  </si>
+  <si>
+    <t>F9TkQXO2YeOMwzW</t>
+  </si>
+  <si>
+    <t>kelton.reichert69@gmail.com</t>
+  </si>
+  <si>
+    <t>205101485237</t>
+  </si>
+  <si>
+    <t>24793973</t>
+  </si>
+  <si>
+    <t>Shelley Lynch</t>
+  </si>
+  <si>
+    <t>AGABK29425</t>
+  </si>
+  <si>
+    <t>Sophie Littel</t>
+  </si>
+  <si>
+    <t>8fDi7M85yA8PI97</t>
+  </si>
+  <si>
+    <t>jerod.nitzsche@hotmail.com</t>
+  </si>
+  <si>
+    <t>470725325101</t>
+  </si>
+  <si>
+    <t>41448941</t>
+  </si>
+  <si>
+    <t>Dixie Blick</t>
+  </si>
+  <si>
+    <t>AGABK29426</t>
+  </si>
+  <si>
+    <t>Rudy Moen</t>
+  </si>
+  <si>
+    <t>dSOELZGfRok_wnr</t>
+  </si>
+  <si>
+    <t>marcelo.prohaska@yahoo.com</t>
+  </si>
+  <si>
+    <t>777360119652</t>
+  </si>
+  <si>
+    <t>74125266</t>
+  </si>
+  <si>
+    <t>Santos Kassulke</t>
+  </si>
+  <si>
+    <t>43000</t>
+  </si>
+  <si>
+    <t>AGABK29427</t>
+  </si>
+  <si>
+    <t>Brett Kilback DVM</t>
+  </si>
+  <si>
+    <t>aD79IcJkWFfeeKE</t>
+  </si>
+  <si>
+    <t>alvis13@hotmail.com</t>
+  </si>
+  <si>
+    <t>075558148418</t>
+  </si>
+  <si>
+    <t>10246740</t>
+  </si>
+  <si>
+    <t>Mr. Heather Swift</t>
+  </si>
+  <si>
+    <t>AGABK29428</t>
+  </si>
+  <si>
+    <t>Willis Dicki</t>
+  </si>
+  <si>
+    <t>jrtmgKURkFWiGcJ</t>
+  </si>
+  <si>
+    <t>kasandra_braun@hotmail.com</t>
+  </si>
+  <si>
+    <t>407657554613</t>
+  </si>
+  <si>
+    <t>11843097</t>
+  </si>
+  <si>
+    <t>Ms. Reginald Predovic</t>
+  </si>
+  <si>
+    <t>AGABK29429</t>
+  </si>
+  <si>
+    <t>Daisy Ondricka</t>
+  </si>
+  <si>
+    <t>6_NtcbYwVi22vRi</t>
+  </si>
+  <si>
+    <t>margarett7@gmail.com</t>
+  </si>
+  <si>
+    <t>388422093764</t>
+  </si>
+  <si>
+    <t>09409025</t>
+  </si>
+  <si>
+    <t>Velma Hoeger</t>
+  </si>
+  <si>
+    <t>AGABK29430</t>
+  </si>
+  <si>
+    <t>Nora Botsford</t>
+  </si>
+  <si>
+    <t>E7jnFS80dSR5oHu</t>
+  </si>
+  <si>
+    <t>jessie12@hotmail.com</t>
+  </si>
+  <si>
+    <t>873211244421</t>
+  </si>
+  <si>
+    <t>52828990</t>
+  </si>
+  <si>
+    <t>Ginger Quigley</t>
+  </si>
+  <si>
+    <t>17000</t>
+  </si>
+  <si>
+    <t>AGABK29431</t>
+  </si>
+  <si>
+    <t>Gladys Schuster</t>
+  </si>
+  <si>
+    <t>j1ajHjnOXlpP6Zy</t>
+  </si>
+  <si>
+    <t>webster_boyle@hotmail.com</t>
+  </si>
+  <si>
+    <t>460609972760</t>
+  </si>
+  <si>
+    <t>16307079</t>
+  </si>
+  <si>
+    <t>Rufus Wunsch</t>
+  </si>
+  <si>
+    <t>AGABK29432</t>
+  </si>
+  <si>
+    <t>Ms. Harvey Heaney</t>
+  </si>
+  <si>
+    <t>oM1_E8vtlPYv4kV</t>
+  </si>
+  <si>
+    <t>elliott_connelly@gmail.com</t>
+  </si>
+  <si>
+    <t>587824032016</t>
+  </si>
+  <si>
+    <t>58049322</t>
+  </si>
+  <si>
+    <t>Fernando Streich</t>
+  </si>
+  <si>
+    <t>AGABK29433</t>
+  </si>
+  <si>
+    <t>Kenneth Goodwin</t>
+  </si>
+  <si>
+    <t>RM5yqFZqDnB8H87</t>
+  </si>
+  <si>
+    <t>jaylen_tillman38@hotmail.com</t>
+  </si>
+  <si>
+    <t>197347300180</t>
+  </si>
+  <si>
+    <t>81522463</t>
+  </si>
+  <si>
+    <t>Ms. Emanuel Bechtelar</t>
+  </si>
+  <si>
+    <t>AGABK29434</t>
+  </si>
+  <si>
+    <t>Lloyd Champlin</t>
+  </si>
+  <si>
+    <t>veklJYljujEAsMa</t>
+  </si>
+  <si>
+    <t>hillard.ledner47@yahoo.com</t>
+  </si>
+  <si>
+    <t>883581590478</t>
+  </si>
+  <si>
+    <t>65870670</t>
+  </si>
+  <si>
+    <t>Dr. Faith Gusikowski</t>
+  </si>
+  <si>
+    <t>AGABK29435</t>
+  </si>
+  <si>
+    <t>Vernon Wunsch</t>
+  </si>
+  <si>
+    <t>n5cQpW5khffvAPA</t>
+  </si>
+  <si>
+    <t>constance81@hotmail.com</t>
+  </si>
+  <si>
+    <t>967569828119</t>
+  </si>
+  <si>
+    <t>09688656</t>
+  </si>
+  <si>
+    <t>Maggie Rosenbaum</t>
+  </si>
+  <si>
+    <t>AGABK29436</t>
+  </si>
+  <si>
+    <t>Gail Schuppe</t>
+  </si>
+  <si>
+    <t>q0d_d5lUOFjP8fO</t>
+  </si>
+  <si>
+    <t>bartholome_auer61@hotmail.com</t>
+  </si>
+  <si>
+    <t>467912718651</t>
+  </si>
+  <si>
+    <t>21870098</t>
+  </si>
+  <si>
+    <t>Ismael Runolfsson</t>
+  </si>
+  <si>
+    <t>AGABK29437</t>
+  </si>
+  <si>
+    <t>Jared Cartwright</t>
+  </si>
+  <si>
+    <t>PcAacmMvcSbatrq</t>
+  </si>
+  <si>
+    <t>wilmer_barrows87@hotmail.com</t>
+  </si>
+  <si>
+    <t>734006491260</t>
+  </si>
+  <si>
+    <t>25908284</t>
+  </si>
+  <si>
+    <t>Priscilla Blanda</t>
+  </si>
+  <si>
+    <t>AGABK29438</t>
+  </si>
+  <si>
+    <t>Lowell Nicolas</t>
+  </si>
+  <si>
+    <t>w69pA2Fsz7QT6kf</t>
+  </si>
+  <si>
+    <t>natalie_hyatt83@gmail.com</t>
+  </si>
+  <si>
+    <t>859019267858</t>
+  </si>
+  <si>
+    <t>79331364</t>
+  </si>
+  <si>
+    <t>Ian Weissnat</t>
+  </si>
+  <si>
+    <t>AGABK29439</t>
+  </si>
+  <si>
+    <t>Jeanne Greenholt</t>
+  </si>
+  <si>
+    <t>8vq4WIPVGJnBL9j</t>
+  </si>
+  <si>
+    <t>wilma_cummerata32@yahoo.com</t>
+  </si>
+  <si>
+    <t>949845176999</t>
+  </si>
+  <si>
+    <t>95595746</t>
+  </si>
+  <si>
+    <t>Kristin Davis</t>
+  </si>
+  <si>
+    <t>AGABK29440</t>
+  </si>
+  <si>
+    <t>Daryl Dach</t>
+  </si>
+  <si>
+    <t>v1blBkMbrXrWay4</t>
+  </si>
+  <si>
+    <t>ruben_schiller@gmail.com</t>
+  </si>
+  <si>
+    <t>389246714054</t>
+  </si>
+  <si>
+    <t>44329440</t>
+  </si>
+  <si>
+    <t>Natasha Koss</t>
+  </si>
+  <si>
+    <t>AGABK29441</t>
+  </si>
+  <si>
+    <t>Shari Hahn</t>
+  </si>
+  <si>
+    <t>XcsoGUNQ5iOv6zc</t>
+  </si>
+  <si>
+    <t>alene34@hotmail.com</t>
+  </si>
+  <si>
+    <t>714404958514</t>
+  </si>
+  <si>
+    <t>56995381</t>
+  </si>
+  <si>
+    <t>Casey Rau II</t>
+  </si>
+  <si>
+    <t>AGABK29442</t>
+  </si>
+  <si>
+    <t>Dixie Halvorson</t>
+  </si>
+  <si>
+    <t>ZwaJjgFXZ1VsFjD</t>
+  </si>
+  <si>
+    <t>winifred94@gmail.com</t>
+  </si>
+  <si>
+    <t>801729544799</t>
+  </si>
+  <si>
+    <t>21232697</t>
+  </si>
+  <si>
+    <t>Pat Flatley</t>
+  </si>
+  <si>
+    <t>67000</t>
+  </si>
+  <si>
+    <t>AGABK29443</t>
+  </si>
+  <si>
+    <t>Bennie Wolf</t>
+  </si>
+  <si>
+    <t>f2bxP9VlqpvX8yV</t>
+  </si>
+  <si>
+    <t>baron21@yahoo.com</t>
+  </si>
+  <si>
+    <t>444024984683</t>
+  </si>
+  <si>
+    <t>91469180</t>
+  </si>
+  <si>
+    <t>Dr. Salvador Stamm</t>
+  </si>
+  <si>
+    <t>AGABK29444</t>
+  </si>
+  <si>
+    <t>Cristina Rodriguez</t>
+  </si>
+  <si>
+    <t>U8OfiyyFc6G8Viu</t>
+  </si>
+  <si>
+    <t>gladyce50@gmail.com</t>
+  </si>
+  <si>
+    <t>590642137372</t>
+  </si>
+  <si>
+    <t>96043189</t>
+  </si>
+  <si>
+    <t>Lora Brakus</t>
+  </si>
+  <si>
+    <t>AGABK29445</t>
+  </si>
+  <si>
+    <t>Patrick Nitzsche</t>
+  </si>
+  <si>
+    <t>NLxCnn8MmJk7a71</t>
+  </si>
+  <si>
+    <t>alec.hilpert@hotmail.com</t>
+  </si>
+  <si>
+    <t>682115030930</t>
+  </si>
+  <si>
+    <t>11285193</t>
+  </si>
+  <si>
+    <t>Bernard Dare</t>
+  </si>
+  <si>
+    <t>AGABK29446</t>
+  </si>
+  <si>
+    <t>Ms. Omar Kuhic</t>
+  </si>
+  <si>
+    <t>zQTvuKhqqShJ1wi</t>
+  </si>
+  <si>
+    <t>danial_heathcote@hotmail.com</t>
+  </si>
+  <si>
+    <t>660717318815</t>
+  </si>
+  <si>
+    <t>87364882</t>
+  </si>
+  <si>
+    <t>Preston Schamberger</t>
+  </si>
+  <si>
+    <t>94000</t>
+  </si>
+  <si>
+    <t>AGABK29447</t>
+  </si>
+  <si>
+    <t>Edwin Mertz</t>
+  </si>
+  <si>
+    <t>IXynlj3uoDpK4Wh</t>
+  </si>
+  <si>
+    <t>willow36@gmail.com</t>
+  </si>
+  <si>
+    <t>765599788653</t>
+  </si>
+  <si>
+    <t>55260692</t>
+  </si>
+  <si>
+    <t>Max Dietrich</t>
+  </si>
+  <si>
+    <t>86000</t>
+  </si>
+  <si>
+    <t>AGABK29448</t>
+  </si>
+  <si>
+    <t>Blanca Brakus</t>
+  </si>
+  <si>
+    <t>EDbi1BsqOIe9qb4</t>
+  </si>
+  <si>
+    <t>christiana.jaskolski10@gmail.com</t>
+  </si>
+  <si>
+    <t>589998250876</t>
+  </si>
+  <si>
+    <t>90357696</t>
+  </si>
+  <si>
+    <t>Susan Runolfsson</t>
+  </si>
+  <si>
+    <t>AGABK29449</t>
+  </si>
+  <si>
+    <t>Mrs. Edmond Hoppe</t>
+  </si>
+  <si>
+    <t>83OU10oJ082NOPv</t>
+  </si>
+  <si>
+    <t>tessie50@yahoo.com</t>
+  </si>
+  <si>
+    <t>774858631222</t>
+  </si>
+  <si>
+    <t>50450386</t>
+  </si>
+  <si>
+    <t>Marian Hilpert</t>
+  </si>
+  <si>
+    <t>AGABK29450</t>
+  </si>
+  <si>
+    <t>Kristopher Langosh</t>
+  </si>
+  <si>
+    <t>jDDnnWsTcOBI8RJ</t>
+  </si>
+  <si>
+    <t>celestine.lindgren48@hotmail.com</t>
+  </si>
+  <si>
+    <t>998336109230</t>
+  </si>
+  <si>
+    <t>57737004</t>
+  </si>
+  <si>
+    <t>Angel Jones</t>
+  </si>
+  <si>
+    <t>AGABK29451</t>
+  </si>
+  <si>
+    <t>Rhonda Hirthe</t>
+  </si>
+  <si>
+    <t>QhKNXYKDoSNMH5W</t>
+  </si>
+  <si>
+    <t>marvin20@yahoo.com</t>
+  </si>
+  <si>
+    <t>550303280193</t>
+  </si>
+  <si>
+    <t>03242563</t>
+  </si>
+  <si>
+    <t>Pedro Renner</t>
+  </si>
+  <si>
+    <t>AGABK29452</t>
+  </si>
+  <si>
+    <t>Luis Feest</t>
+  </si>
+  <si>
+    <t>lJuhCXzkaGiUbxc</t>
+  </si>
+  <si>
+    <t>ivah_volkman@hotmail.com</t>
+  </si>
+  <si>
+    <t>279241277819</t>
+  </si>
+  <si>
+    <t>89693586</t>
+  </si>
+  <si>
+    <t>Ernest Kirlin PhD</t>
+  </si>
+  <si>
+    <t>AGABK29453</t>
+  </si>
+  <si>
+    <t>Troy Kuhn</t>
+  </si>
+  <si>
+    <t>71t0r0_tjT8GKR7</t>
+  </si>
+  <si>
+    <t>katharina.johnson88@gmail.com</t>
+  </si>
+  <si>
+    <t>749494478243</t>
+  </si>
+  <si>
+    <t>58449446</t>
+  </si>
+  <si>
+    <t>Ms. Douglas Pacocha</t>
+  </si>
+  <si>
+    <t>AGABK29454</t>
+  </si>
+  <si>
+    <t>Mrs. Ramiro Feil</t>
+  </si>
+  <si>
+    <t>9nkmXJOng41HyxS</t>
+  </si>
+  <si>
+    <t>sophia22@hotmail.com</t>
+  </si>
+  <si>
+    <t>941386517911</t>
+  </si>
+  <si>
+    <t>76128350</t>
+  </si>
+  <si>
+    <t>Essie Leffler</t>
+  </si>
+  <si>
+    <t>26000</t>
+  </si>
+  <si>
+    <t>AGABK29455</t>
+  </si>
+  <si>
+    <t>Dr. Howard O'Conner</t>
+  </si>
+  <si>
+    <t>weqvIsiF7JNGILE</t>
+  </si>
+  <si>
+    <t>andy.walker5@gmail.com</t>
+  </si>
+  <si>
+    <t>879900738311</t>
+  </si>
+  <si>
+    <t>56779073</t>
+  </si>
+  <si>
+    <t>Duane Kerluke</t>
+  </si>
+  <si>
+    <t>AGABK29456</t>
+  </si>
+  <si>
+    <t>Gloria Lehner</t>
+  </si>
+  <si>
+    <t>18q7vmvO7Fr6Jjo</t>
+  </si>
+  <si>
+    <t>dorothy.fay15@yahoo.com</t>
+  </si>
+  <si>
+    <t>617493689997</t>
+  </si>
+  <si>
+    <t>85289334</t>
+  </si>
+  <si>
+    <t>Kari Harris</t>
+  </si>
+  <si>
+    <t>AGABK29457</t>
+  </si>
+  <si>
+    <t>Sandy Bauch</t>
+  </si>
+  <si>
+    <t>4AI1DpBRzmxC_uU</t>
+  </si>
+  <si>
+    <t>zola.mayer@hotmail.com</t>
+  </si>
+  <si>
+    <t>511831245883</t>
+  </si>
+  <si>
+    <t>31500876</t>
+  </si>
+  <si>
+    <t>Mrs. Tracey Kertzmann</t>
+  </si>
+  <si>
+    <t>AGABK29458</t>
+  </si>
+  <si>
+    <t>Joanna Connelly</t>
+  </si>
+  <si>
+    <t>mVhITcQEPnbmbEh</t>
+  </si>
+  <si>
+    <t>malcolm.barrows@yahoo.com</t>
+  </si>
+  <si>
+    <t>805592640400</t>
+  </si>
+  <si>
+    <t>50254448</t>
+  </si>
+  <si>
+    <t>Israel Sanford</t>
+  </si>
+  <si>
+    <t>AGABK29459</t>
+  </si>
+  <si>
+    <t>Clayton Maggio</t>
+  </si>
+  <si>
+    <t>xWORliAbjKWAW7B</t>
+  </si>
+  <si>
+    <t>tiana_bergnaum9@yahoo.com</t>
+  </si>
+  <si>
+    <t>044154990561</t>
+  </si>
+  <si>
+    <t>90278331</t>
+  </si>
+  <si>
+    <t>Patrick Buckridge</t>
+  </si>
+  <si>
+    <t>AGABK29460</t>
+  </si>
+  <si>
+    <t>Mr. Edna Schumm</t>
+  </si>
+  <si>
+    <t>gqiRXLhTIYRHUps</t>
+  </si>
+  <si>
+    <t>erik.mante94@yahoo.com</t>
+  </si>
+  <si>
+    <t>509163815605</t>
+  </si>
+  <si>
+    <t>11861636</t>
+  </si>
+  <si>
+    <t>Rolando Fay</t>
+  </si>
+  <si>
+    <t>AGABK29461</t>
+  </si>
+  <si>
+    <t>Robert Zboncak</t>
+  </si>
+  <si>
+    <t>A54Vr83ddUoITw1</t>
+  </si>
+  <si>
+    <t>aric.bayer95@yahoo.com</t>
+  </si>
+  <si>
+    <t>527387720549</t>
+  </si>
+  <si>
+    <t>79971672</t>
+  </si>
+  <si>
+    <t>Guy Tillman</t>
+  </si>
+  <si>
+    <t>AGABK29462</t>
+  </si>
+  <si>
+    <t>Earl Stroman PhD</t>
+  </si>
+  <si>
+    <t>f_847ZOW3ByRamk</t>
+  </si>
+  <si>
+    <t>beaulah.padberg59@gmail.com</t>
+  </si>
+  <si>
+    <t>686951401175</t>
+  </si>
+  <si>
+    <t>65165566</t>
+  </si>
+  <si>
+    <t>Ethel Yundt</t>
+  </si>
+  <si>
+    <t>AGABK29463</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>Willis Hahn</t>
+  </si>
+  <si>
+    <t>w14_XzEeqFRpTYk</t>
+  </si>
+  <si>
+    <t>fritz_durgan70@gmail.com</t>
+  </si>
+  <si>
+    <t>789062898841</t>
+  </si>
+  <si>
+    <t>84923635</t>
+  </si>
+  <si>
+    <t>Marta Mayer</t>
+  </si>
+  <si>
+    <t>AGABK29464</t>
+  </si>
+  <si>
+    <t>Laura Romaguera</t>
+  </si>
+  <si>
+    <t>g3MOPJxGwPJHzgA</t>
+  </si>
+  <si>
+    <t>jess.baumbach@hotmail.com</t>
+  </si>
+  <si>
+    <t>986765474117</t>
+  </si>
+  <si>
+    <t>15910633</t>
+  </si>
+  <si>
+    <t>Jaime Beatty</t>
+  </si>
+  <si>
+    <t>63000</t>
+  </si>
+  <si>
+    <t>AGABK29465</t>
+  </si>
+  <si>
+    <t>Javier Powlowski</t>
+  </si>
+  <si>
+    <t>56iq9rahbBs3ZwX</t>
+  </si>
+  <si>
+    <t>glenna82@hotmail.com</t>
+  </si>
+  <si>
+    <t>398841415441</t>
+  </si>
+  <si>
+    <t>84302780</t>
+  </si>
+  <si>
+    <t>Kristina O'Reilly Jr.</t>
+  </si>
+  <si>
+    <t>AGABK29466</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +4101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J166"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3581,6 +5960,3462 @@
         <v>19</v>
       </c>
     </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>445</v>
+      </c>
+      <c r="B59" t="s">
+        <v>446</v>
+      </c>
+      <c r="C59" t="s">
+        <v>447</v>
+      </c>
+      <c r="D59" t="s">
+        <v>448</v>
+      </c>
+      <c r="E59" t="s">
+        <v>449</v>
+      </c>
+      <c r="F59" t="s">
+        <v>450</v>
+      </c>
+      <c r="G59" t="s">
+        <v>199</v>
+      </c>
+      <c r="H59" t="s">
+        <v>451</v>
+      </c>
+      <c r="I59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>452</v>
+      </c>
+      <c r="B60" t="s">
+        <v>453</v>
+      </c>
+      <c r="C60" t="s">
+        <v>454</v>
+      </c>
+      <c r="D60" t="s">
+        <v>455</v>
+      </c>
+      <c r="E60" t="s">
+        <v>456</v>
+      </c>
+      <c r="F60" t="s">
+        <v>457</v>
+      </c>
+      <c r="G60" t="s">
+        <v>128</v>
+      </c>
+      <c r="H60" t="s">
+        <v>458</v>
+      </c>
+      <c r="I60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>459</v>
+      </c>
+      <c r="B61" t="s">
+        <v>460</v>
+      </c>
+      <c r="C61" t="s">
+        <v>461</v>
+      </c>
+      <c r="D61" t="s">
+        <v>462</v>
+      </c>
+      <c r="E61" t="s">
+        <v>463</v>
+      </c>
+      <c r="F61" t="s">
+        <v>464</v>
+      </c>
+      <c r="G61" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" t="s">
+        <v>465</v>
+      </c>
+      <c r="I61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>466</v>
+      </c>
+      <c r="B62" t="s">
+        <v>467</v>
+      </c>
+      <c r="C62" t="s">
+        <v>468</v>
+      </c>
+      <c r="D62" t="s">
+        <v>469</v>
+      </c>
+      <c r="E62" t="s">
+        <v>470</v>
+      </c>
+      <c r="F62" t="s">
+        <v>471</v>
+      </c>
+      <c r="G62" t="s">
+        <v>472</v>
+      </c>
+      <c r="H62" t="s">
+        <v>473</v>
+      </c>
+      <c r="I62" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>474</v>
+      </c>
+      <c r="B63" t="s">
+        <v>475</v>
+      </c>
+      <c r="C63" t="s">
+        <v>476</v>
+      </c>
+      <c r="D63" t="s">
+        <v>477</v>
+      </c>
+      <c r="E63" t="s">
+        <v>478</v>
+      </c>
+      <c r="F63" t="s">
+        <v>479</v>
+      </c>
+      <c r="G63" t="s">
+        <v>480</v>
+      </c>
+      <c r="H63" t="s">
+        <v>481</v>
+      </c>
+      <c r="I63" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>482</v>
+      </c>
+      <c r="B64" t="s">
+        <v>483</v>
+      </c>
+      <c r="C64" t="s">
+        <v>484</v>
+      </c>
+      <c r="D64" t="s">
+        <v>485</v>
+      </c>
+      <c r="E64" t="s">
+        <v>486</v>
+      </c>
+      <c r="F64" t="s">
+        <v>487</v>
+      </c>
+      <c r="G64" t="s">
+        <v>191</v>
+      </c>
+      <c r="H64" t="s">
+        <v>488</v>
+      </c>
+      <c r="I64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>489</v>
+      </c>
+      <c r="B65" t="s">
+        <v>490</v>
+      </c>
+      <c r="C65" t="s">
+        <v>491</v>
+      </c>
+      <c r="D65" t="s">
+        <v>492</v>
+      </c>
+      <c r="E65" t="s">
+        <v>493</v>
+      </c>
+      <c r="F65" t="s">
+        <v>494</v>
+      </c>
+      <c r="G65" t="s">
+        <v>495</v>
+      </c>
+      <c r="H65" t="s">
+        <v>496</v>
+      </c>
+      <c r="I65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>497</v>
+      </c>
+      <c r="B66" t="s">
+        <v>498</v>
+      </c>
+      <c r="C66" t="s">
+        <v>499</v>
+      </c>
+      <c r="D66" t="s">
+        <v>500</v>
+      </c>
+      <c r="E66" t="s">
+        <v>501</v>
+      </c>
+      <c r="F66" t="s">
+        <v>502</v>
+      </c>
+      <c r="G66" t="s">
+        <v>503</v>
+      </c>
+      <c r="H66" t="s">
+        <v>504</v>
+      </c>
+      <c r="I66" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>505</v>
+      </c>
+      <c r="B67" t="s">
+        <v>506</v>
+      </c>
+      <c r="C67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D67" t="s">
+        <v>508</v>
+      </c>
+      <c r="E67" t="s">
+        <v>509</v>
+      </c>
+      <c r="F67" t="s">
+        <v>510</v>
+      </c>
+      <c r="G67" t="s">
+        <v>144</v>
+      </c>
+      <c r="H67" t="s">
+        <v>511</v>
+      </c>
+      <c r="I67" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>512</v>
+      </c>
+      <c r="B68" t="s">
+        <v>513</v>
+      </c>
+      <c r="C68" t="s">
+        <v>514</v>
+      </c>
+      <c r="D68" t="s">
+        <v>515</v>
+      </c>
+      <c r="E68" t="s">
+        <v>516</v>
+      </c>
+      <c r="F68" t="s">
+        <v>517</v>
+      </c>
+      <c r="G68" t="s">
+        <v>518</v>
+      </c>
+      <c r="H68" t="s">
+        <v>519</v>
+      </c>
+      <c r="I68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>520</v>
+      </c>
+      <c r="B69" t="s">
+        <v>521</v>
+      </c>
+      <c r="C69" t="s">
+        <v>522</v>
+      </c>
+      <c r="D69" t="s">
+        <v>523</v>
+      </c>
+      <c r="E69" t="s">
+        <v>524</v>
+      </c>
+      <c r="F69" t="s">
+        <v>525</v>
+      </c>
+      <c r="G69" t="s">
+        <v>263</v>
+      </c>
+      <c r="H69" t="s">
+        <v>526</v>
+      </c>
+      <c r="I69" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>527</v>
+      </c>
+      <c r="B70" t="s">
+        <v>528</v>
+      </c>
+      <c r="C70" t="s">
+        <v>529</v>
+      </c>
+      <c r="D70" t="s">
+        <v>530</v>
+      </c>
+      <c r="E70" t="s">
+        <v>531</v>
+      </c>
+      <c r="F70" t="s">
+        <v>532</v>
+      </c>
+      <c r="G70" t="s">
+        <v>407</v>
+      </c>
+      <c r="H70" t="s">
+        <v>533</v>
+      </c>
+      <c r="I70" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>534</v>
+      </c>
+      <c r="B71" t="s">
+        <v>535</v>
+      </c>
+      <c r="C71" t="s">
+        <v>536</v>
+      </c>
+      <c r="D71" t="s">
+        <v>537</v>
+      </c>
+      <c r="E71" t="s">
+        <v>538</v>
+      </c>
+      <c r="F71" t="s">
+        <v>539</v>
+      </c>
+      <c r="G71" t="s">
+        <v>89</v>
+      </c>
+      <c r="H71" t="s">
+        <v>540</v>
+      </c>
+      <c r="I71" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>541</v>
+      </c>
+      <c r="B72" t="s">
+        <v>542</v>
+      </c>
+      <c r="C72" t="s">
+        <v>543</v>
+      </c>
+      <c r="D72" t="s">
+        <v>544</v>
+      </c>
+      <c r="E72" t="s">
+        <v>545</v>
+      </c>
+      <c r="F72" t="s">
+        <v>546</v>
+      </c>
+      <c r="G72" t="s">
+        <v>255</v>
+      </c>
+      <c r="H72" t="s">
+        <v>547</v>
+      </c>
+      <c r="I72" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>548</v>
+      </c>
+      <c r="B73" t="s">
+        <v>549</v>
+      </c>
+      <c r="C73" t="s">
+        <v>550</v>
+      </c>
+      <c r="D73" t="s">
+        <v>551</v>
+      </c>
+      <c r="E73" t="s">
+        <v>552</v>
+      </c>
+      <c r="F73" t="s">
+        <v>553</v>
+      </c>
+      <c r="G73" t="s">
+        <v>554</v>
+      </c>
+      <c r="H73" t="s">
+        <v>555</v>
+      </c>
+      <c r="I73" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>556</v>
+      </c>
+      <c r="B74" t="s">
+        <v>557</v>
+      </c>
+      <c r="C74" t="s">
+        <v>558</v>
+      </c>
+      <c r="D74" t="s">
+        <v>559</v>
+      </c>
+      <c r="E74" t="s">
+        <v>560</v>
+      </c>
+      <c r="F74" t="s">
+        <v>561</v>
+      </c>
+      <c r="G74" t="s">
+        <v>562</v>
+      </c>
+      <c r="H74" t="s">
+        <v>563</v>
+      </c>
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>564</v>
+      </c>
+      <c r="B75" t="s">
+        <v>565</v>
+      </c>
+      <c r="C75" t="s">
+        <v>566</v>
+      </c>
+      <c r="D75" t="s">
+        <v>567</v>
+      </c>
+      <c r="E75" t="s">
+        <v>568</v>
+      </c>
+      <c r="F75" t="s">
+        <v>569</v>
+      </c>
+      <c r="G75" t="s">
+        <v>239</v>
+      </c>
+      <c r="H75" t="s">
+        <v>570</v>
+      </c>
+      <c r="I75" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>571</v>
+      </c>
+      <c r="B76" t="s">
+        <v>572</v>
+      </c>
+      <c r="C76" t="s">
+        <v>573</v>
+      </c>
+      <c r="D76" t="s">
+        <v>574</v>
+      </c>
+      <c r="E76" t="s">
+        <v>575</v>
+      </c>
+      <c r="F76" t="s">
+        <v>576</v>
+      </c>
+      <c r="G76" t="s">
+        <v>65</v>
+      </c>
+      <c r="H76" t="s">
+        <v>577</v>
+      </c>
+      <c r="I76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>578</v>
+      </c>
+      <c r="B77" t="s">
+        <v>579</v>
+      </c>
+      <c r="C77" t="s">
+        <v>580</v>
+      </c>
+      <c r="D77" t="s">
+        <v>581</v>
+      </c>
+      <c r="E77" t="s">
+        <v>582</v>
+      </c>
+      <c r="F77" t="s">
+        <v>583</v>
+      </c>
+      <c r="G77" t="s">
+        <v>128</v>
+      </c>
+      <c r="H77" t="s">
+        <v>584</v>
+      </c>
+      <c r="I77" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>585</v>
+      </c>
+      <c r="B78" t="s">
+        <v>586</v>
+      </c>
+      <c r="C78" t="s">
+        <v>587</v>
+      </c>
+      <c r="D78" t="s">
+        <v>588</v>
+      </c>
+      <c r="E78" t="s">
+        <v>589</v>
+      </c>
+      <c r="F78" t="s">
+        <v>590</v>
+      </c>
+      <c r="G78" t="s">
+        <v>57</v>
+      </c>
+      <c r="H78" t="s">
+        <v>591</v>
+      </c>
+      <c r="I78" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>592</v>
+      </c>
+      <c r="B79" t="s">
+        <v>593</v>
+      </c>
+      <c r="C79" t="s">
+        <v>594</v>
+      </c>
+      <c r="D79" t="s">
+        <v>595</v>
+      </c>
+      <c r="E79" t="s">
+        <v>596</v>
+      </c>
+      <c r="F79" t="s">
+        <v>597</v>
+      </c>
+      <c r="G79" t="s">
+        <v>57</v>
+      </c>
+      <c r="H79" t="s">
+        <v>598</v>
+      </c>
+      <c r="I79" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>599</v>
+      </c>
+      <c r="B80" t="s">
+        <v>600</v>
+      </c>
+      <c r="C80" t="s">
+        <v>601</v>
+      </c>
+      <c r="D80" t="s">
+        <v>602</v>
+      </c>
+      <c r="E80" t="s">
+        <v>603</v>
+      </c>
+      <c r="F80" t="s">
+        <v>604</v>
+      </c>
+      <c r="G80" t="s">
+        <v>605</v>
+      </c>
+      <c r="H80" t="s">
+        <v>606</v>
+      </c>
+      <c r="I80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>607</v>
+      </c>
+      <c r="B81" t="s">
+        <v>608</v>
+      </c>
+      <c r="C81" t="s">
+        <v>609</v>
+      </c>
+      <c r="D81" t="s">
+        <v>610</v>
+      </c>
+      <c r="E81" t="s">
+        <v>611</v>
+      </c>
+      <c r="F81" t="s">
+        <v>612</v>
+      </c>
+      <c r="G81" t="s">
+        <v>613</v>
+      </c>
+      <c r="H81" t="s">
+        <v>614</v>
+      </c>
+      <c r="I81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>615</v>
+      </c>
+      <c r="B82" t="s">
+        <v>616</v>
+      </c>
+      <c r="C82" t="s">
+        <v>617</v>
+      </c>
+      <c r="D82" t="s">
+        <v>618</v>
+      </c>
+      <c r="E82" t="s">
+        <v>619</v>
+      </c>
+      <c r="F82" t="s">
+        <v>620</v>
+      </c>
+      <c r="G82" t="s">
+        <v>399</v>
+      </c>
+      <c r="H82" t="s">
+        <v>621</v>
+      </c>
+      <c r="I82" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>622</v>
+      </c>
+      <c r="B83" t="s">
+        <v>623</v>
+      </c>
+      <c r="C83" t="s">
+        <v>624</v>
+      </c>
+      <c r="D83" t="s">
+        <v>625</v>
+      </c>
+      <c r="E83" t="s">
+        <v>626</v>
+      </c>
+      <c r="F83" t="s">
+        <v>627</v>
+      </c>
+      <c r="G83" t="s">
+        <v>628</v>
+      </c>
+      <c r="H83" t="s">
+        <v>629</v>
+      </c>
+      <c r="I83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>630</v>
+      </c>
+      <c r="B84" t="s">
+        <v>631</v>
+      </c>
+      <c r="C84" t="s">
+        <v>632</v>
+      </c>
+      <c r="D84" t="s">
+        <v>633</v>
+      </c>
+      <c r="E84" t="s">
+        <v>634</v>
+      </c>
+      <c r="F84" t="s">
+        <v>635</v>
+      </c>
+      <c r="G84" t="s">
+        <v>636</v>
+      </c>
+      <c r="H84" t="s">
+        <v>637</v>
+      </c>
+      <c r="I84" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>638</v>
+      </c>
+      <c r="B85" t="s">
+        <v>639</v>
+      </c>
+      <c r="C85" t="s">
+        <v>640</v>
+      </c>
+      <c r="D85" t="s">
+        <v>641</v>
+      </c>
+      <c r="E85" t="s">
+        <v>642</v>
+      </c>
+      <c r="F85" t="s">
+        <v>643</v>
+      </c>
+      <c r="G85" t="s">
+        <v>644</v>
+      </c>
+      <c r="H85" t="s">
+        <v>645</v>
+      </c>
+      <c r="I85" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>646</v>
+      </c>
+      <c r="B86" t="s">
+        <v>647</v>
+      </c>
+      <c r="C86" t="s">
+        <v>648</v>
+      </c>
+      <c r="D86" t="s">
+        <v>649</v>
+      </c>
+      <c r="E86" t="s">
+        <v>650</v>
+      </c>
+      <c r="F86" t="s">
+        <v>651</v>
+      </c>
+      <c r="G86" t="s">
+        <v>160</v>
+      </c>
+      <c r="H86" t="s">
+        <v>652</v>
+      </c>
+      <c r="I86" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>653</v>
+      </c>
+      <c r="B87" t="s">
+        <v>654</v>
+      </c>
+      <c r="C87" t="s">
+        <v>655</v>
+      </c>
+      <c r="D87" t="s">
+        <v>656</v>
+      </c>
+      <c r="E87" t="s">
+        <v>657</v>
+      </c>
+      <c r="F87" t="s">
+        <v>658</v>
+      </c>
+      <c r="G87" t="s">
+        <v>605</v>
+      </c>
+      <c r="H87" t="s">
+        <v>659</v>
+      </c>
+      <c r="I87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>660</v>
+      </c>
+      <c r="B88" t="s">
+        <v>661</v>
+      </c>
+      <c r="C88" t="s">
+        <v>662</v>
+      </c>
+      <c r="D88" t="s">
+        <v>663</v>
+      </c>
+      <c r="E88" t="s">
+        <v>664</v>
+      </c>
+      <c r="F88" t="s">
+        <v>665</v>
+      </c>
+      <c r="G88" t="s">
+        <v>666</v>
+      </c>
+      <c r="H88" t="s">
+        <v>667</v>
+      </c>
+      <c r="I88" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>668</v>
+      </c>
+      <c r="B89" t="s">
+        <v>669</v>
+      </c>
+      <c r="C89" t="s">
+        <v>670</v>
+      </c>
+      <c r="D89" t="s">
+        <v>671</v>
+      </c>
+      <c r="E89" t="s">
+        <v>672</v>
+      </c>
+      <c r="F89" t="s">
+        <v>673</v>
+      </c>
+      <c r="G89" t="s">
+        <v>136</v>
+      </c>
+      <c r="H89" t="s">
+        <v>674</v>
+      </c>
+      <c r="I89" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>675</v>
+      </c>
+      <c r="B90" t="s">
+        <v>676</v>
+      </c>
+      <c r="C90" t="s">
+        <v>677</v>
+      </c>
+      <c r="D90" t="s">
+        <v>678</v>
+      </c>
+      <c r="E90" t="s">
+        <v>679</v>
+      </c>
+      <c r="F90" t="s">
+        <v>680</v>
+      </c>
+      <c r="G90" t="s">
+        <v>207</v>
+      </c>
+      <c r="H90" t="s">
+        <v>681</v>
+      </c>
+      <c r="I90" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>682</v>
+      </c>
+      <c r="B91" t="s">
+        <v>683</v>
+      </c>
+      <c r="C91" t="s">
+        <v>684</v>
+      </c>
+      <c r="D91" t="s">
+        <v>685</v>
+      </c>
+      <c r="E91" t="s">
+        <v>686</v>
+      </c>
+      <c r="F91" t="s">
+        <v>687</v>
+      </c>
+      <c r="G91" t="s">
+        <v>688</v>
+      </c>
+      <c r="H91" t="s">
+        <v>689</v>
+      </c>
+      <c r="I91" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>690</v>
+      </c>
+      <c r="B92" t="s">
+        <v>691</v>
+      </c>
+      <c r="C92" t="s">
+        <v>692</v>
+      </c>
+      <c r="D92" t="s">
+        <v>693</v>
+      </c>
+      <c r="E92" t="s">
+        <v>694</v>
+      </c>
+      <c r="F92" t="s">
+        <v>695</v>
+      </c>
+      <c r="G92" t="s">
+        <v>696</v>
+      </c>
+      <c r="H92" t="s">
+        <v>697</v>
+      </c>
+      <c r="I92" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>698</v>
+      </c>
+      <c r="B93" t="s">
+        <v>699</v>
+      </c>
+      <c r="C93" t="s">
+        <v>700</v>
+      </c>
+      <c r="D93" t="s">
+        <v>701</v>
+      </c>
+      <c r="E93" t="s">
+        <v>702</v>
+      </c>
+      <c r="F93" t="s">
+        <v>703</v>
+      </c>
+      <c r="G93" t="s">
+        <v>704</v>
+      </c>
+      <c r="H93" t="s">
+        <v>705</v>
+      </c>
+      <c r="I93" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>706</v>
+      </c>
+      <c r="B94" t="s">
+        <v>707</v>
+      </c>
+      <c r="C94" t="s">
+        <v>708</v>
+      </c>
+      <c r="D94" t="s">
+        <v>709</v>
+      </c>
+      <c r="E94" t="s">
+        <v>710</v>
+      </c>
+      <c r="F94" t="s">
+        <v>711</v>
+      </c>
+      <c r="G94" t="s">
+        <v>712</v>
+      </c>
+      <c r="H94" t="s">
+        <v>713</v>
+      </c>
+      <c r="I94" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>714</v>
+      </c>
+      <c r="B95" t="s">
+        <v>715</v>
+      </c>
+      <c r="C95" t="s">
+        <v>716</v>
+      </c>
+      <c r="D95" t="s">
+        <v>717</v>
+      </c>
+      <c r="E95" t="s">
+        <v>718</v>
+      </c>
+      <c r="F95" t="s">
+        <v>719</v>
+      </c>
+      <c r="G95" t="s">
+        <v>720</v>
+      </c>
+      <c r="H95" t="s">
+        <v>721</v>
+      </c>
+      <c r="I95" t="s">
+        <v>18</v>
+      </c>
+      <c r="J95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>722</v>
+      </c>
+      <c r="B96" t="s">
+        <v>723</v>
+      </c>
+      <c r="C96" t="s">
+        <v>724</v>
+      </c>
+      <c r="D96" t="s">
+        <v>725</v>
+      </c>
+      <c r="E96" t="s">
+        <v>726</v>
+      </c>
+      <c r="F96" t="s">
+        <v>727</v>
+      </c>
+      <c r="G96" t="s">
+        <v>495</v>
+      </c>
+      <c r="H96" t="s">
+        <v>728</v>
+      </c>
+      <c r="I96" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>729</v>
+      </c>
+      <c r="B97" t="s">
+        <v>730</v>
+      </c>
+      <c r="C97" t="s">
+        <v>731</v>
+      </c>
+      <c r="D97" t="s">
+        <v>732</v>
+      </c>
+      <c r="E97" t="s">
+        <v>733</v>
+      </c>
+      <c r="F97" t="s">
+        <v>734</v>
+      </c>
+      <c r="G97" t="s">
+        <v>144</v>
+      </c>
+      <c r="H97" t="s">
+        <v>735</v>
+      </c>
+      <c r="I97" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>736</v>
+      </c>
+      <c r="B98" t="s">
+        <v>737</v>
+      </c>
+      <c r="C98" t="s">
+        <v>738</v>
+      </c>
+      <c r="D98" t="s">
+        <v>739</v>
+      </c>
+      <c r="E98" t="s">
+        <v>740</v>
+      </c>
+      <c r="F98" t="s">
+        <v>741</v>
+      </c>
+      <c r="G98" t="s">
+        <v>346</v>
+      </c>
+      <c r="H98" t="s">
+        <v>742</v>
+      </c>
+      <c r="I98" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>743</v>
+      </c>
+      <c r="B99" t="s">
+        <v>744</v>
+      </c>
+      <c r="C99" t="s">
+        <v>745</v>
+      </c>
+      <c r="D99" t="s">
+        <v>746</v>
+      </c>
+      <c r="E99" t="s">
+        <v>747</v>
+      </c>
+      <c r="F99" t="s">
+        <v>748</v>
+      </c>
+      <c r="G99" t="s">
+        <v>215</v>
+      </c>
+      <c r="H99" t="s">
+        <v>749</v>
+      </c>
+      <c r="I99" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>750</v>
+      </c>
+      <c r="B100" t="s">
+        <v>751</v>
+      </c>
+      <c r="C100" t="s">
+        <v>752</v>
+      </c>
+      <c r="D100" t="s">
+        <v>753</v>
+      </c>
+      <c r="E100" t="s">
+        <v>754</v>
+      </c>
+      <c r="F100" t="s">
+        <v>755</v>
+      </c>
+      <c r="G100" t="s">
+        <v>144</v>
+      </c>
+      <c r="H100" t="s">
+        <v>756</v>
+      </c>
+      <c r="I100" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>757</v>
+      </c>
+      <c r="B101" t="s">
+        <v>758</v>
+      </c>
+      <c r="C101" t="s">
+        <v>759</v>
+      </c>
+      <c r="D101" t="s">
+        <v>760</v>
+      </c>
+      <c r="E101" t="s">
+        <v>761</v>
+      </c>
+      <c r="F101" t="s">
+        <v>762</v>
+      </c>
+      <c r="G101" t="s">
+        <v>763</v>
+      </c>
+      <c r="H101" t="s">
+        <v>764</v>
+      </c>
+      <c r="I101" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>765</v>
+      </c>
+      <c r="B102" t="s">
+        <v>766</v>
+      </c>
+      <c r="C102" t="s">
+        <v>767</v>
+      </c>
+      <c r="D102" t="s">
+        <v>768</v>
+      </c>
+      <c r="E102" t="s">
+        <v>769</v>
+      </c>
+      <c r="F102" t="s">
+        <v>770</v>
+      </c>
+      <c r="G102" t="s">
+        <v>771</v>
+      </c>
+      <c r="H102" t="s">
+        <v>772</v>
+      </c>
+      <c r="I102" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>773</v>
+      </c>
+      <c r="B103" t="s">
+        <v>774</v>
+      </c>
+      <c r="C103" t="s">
+        <v>775</v>
+      </c>
+      <c r="D103" t="s">
+        <v>776</v>
+      </c>
+      <c r="E103" t="s">
+        <v>777</v>
+      </c>
+      <c r="F103" t="s">
+        <v>778</v>
+      </c>
+      <c r="G103" t="s">
+        <v>779</v>
+      </c>
+      <c r="H103" t="s">
+        <v>780</v>
+      </c>
+      <c r="I103" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>781</v>
+      </c>
+      <c r="B104" t="s">
+        <v>782</v>
+      </c>
+      <c r="C104" t="s">
+        <v>783</v>
+      </c>
+      <c r="D104" t="s">
+        <v>784</v>
+      </c>
+      <c r="E104" t="s">
+        <v>785</v>
+      </c>
+      <c r="F104" t="s">
+        <v>786</v>
+      </c>
+      <c r="G104" t="s">
+        <v>787</v>
+      </c>
+      <c r="H104" t="s">
+        <v>788</v>
+      </c>
+      <c r="I104" t="s">
+        <v>18</v>
+      </c>
+      <c r="J104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>789</v>
+      </c>
+      <c r="B105" t="s">
+        <v>790</v>
+      </c>
+      <c r="C105" t="s">
+        <v>791</v>
+      </c>
+      <c r="D105" t="s">
+        <v>792</v>
+      </c>
+      <c r="E105" t="s">
+        <v>793</v>
+      </c>
+      <c r="F105" t="s">
+        <v>794</v>
+      </c>
+      <c r="G105" t="s">
+        <v>795</v>
+      </c>
+      <c r="H105" t="s">
+        <v>796</v>
+      </c>
+      <c r="I105" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>797</v>
+      </c>
+      <c r="B106" t="s">
+        <v>798</v>
+      </c>
+      <c r="C106" t="s">
+        <v>799</v>
+      </c>
+      <c r="D106" t="s">
+        <v>800</v>
+      </c>
+      <c r="E106" t="s">
+        <v>801</v>
+      </c>
+      <c r="F106" t="s">
+        <v>802</v>
+      </c>
+      <c r="G106" t="s">
+        <v>803</v>
+      </c>
+      <c r="H106" t="s">
+        <v>804</v>
+      </c>
+      <c r="I106" t="s">
+        <v>18</v>
+      </c>
+      <c r="J106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>805</v>
+      </c>
+      <c r="B107" t="s">
+        <v>806</v>
+      </c>
+      <c r="C107" t="s">
+        <v>807</v>
+      </c>
+      <c r="D107" t="s">
+        <v>808</v>
+      </c>
+      <c r="E107" t="s">
+        <v>809</v>
+      </c>
+      <c r="F107" t="s">
+        <v>810</v>
+      </c>
+      <c r="G107" t="s">
+        <v>803</v>
+      </c>
+      <c r="H107" t="s">
+        <v>811</v>
+      </c>
+      <c r="I107" t="s">
+        <v>18</v>
+      </c>
+      <c r="J107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>812</v>
+      </c>
+      <c r="B108" t="s">
+        <v>813</v>
+      </c>
+      <c r="C108" t="s">
+        <v>814</v>
+      </c>
+      <c r="D108" t="s">
+        <v>815</v>
+      </c>
+      <c r="E108" t="s">
+        <v>816</v>
+      </c>
+      <c r="F108" t="s">
+        <v>817</v>
+      </c>
+      <c r="G108" t="s">
+        <v>666</v>
+      </c>
+      <c r="H108" t="s">
+        <v>818</v>
+      </c>
+      <c r="I108" t="s">
+        <v>18</v>
+      </c>
+      <c r="J108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>819</v>
+      </c>
+      <c r="B109" t="s">
+        <v>820</v>
+      </c>
+      <c r="C109" t="s">
+        <v>821</v>
+      </c>
+      <c r="D109" t="s">
+        <v>822</v>
+      </c>
+      <c r="E109" t="s">
+        <v>823</v>
+      </c>
+      <c r="F109" t="s">
+        <v>824</v>
+      </c>
+      <c r="G109" t="s">
+        <v>183</v>
+      </c>
+      <c r="H109" t="s">
+        <v>825</v>
+      </c>
+      <c r="I109" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>826</v>
+      </c>
+      <c r="B110" t="s">
+        <v>827</v>
+      </c>
+      <c r="C110" t="s">
+        <v>828</v>
+      </c>
+      <c r="D110" t="s">
+        <v>829</v>
+      </c>
+      <c r="E110" t="s">
+        <v>830</v>
+      </c>
+      <c r="F110" t="s">
+        <v>831</v>
+      </c>
+      <c r="G110" t="s">
+        <v>832</v>
+      </c>
+      <c r="H110" t="s">
+        <v>833</v>
+      </c>
+      <c r="I110" t="s">
+        <v>18</v>
+      </c>
+      <c r="J110" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>834</v>
+      </c>
+      <c r="B111" t="s">
+        <v>835</v>
+      </c>
+      <c r="C111" t="s">
+        <v>836</v>
+      </c>
+      <c r="D111" t="s">
+        <v>837</v>
+      </c>
+      <c r="E111" t="s">
+        <v>838</v>
+      </c>
+      <c r="F111" t="s">
+        <v>839</v>
+      </c>
+      <c r="G111" t="s">
+        <v>840</v>
+      </c>
+      <c r="H111" t="s">
+        <v>841</v>
+      </c>
+      <c r="I111" t="s">
+        <v>18</v>
+      </c>
+      <c r="J111" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>842</v>
+      </c>
+      <c r="B112" t="s">
+        <v>843</v>
+      </c>
+      <c r="C112" t="s">
+        <v>844</v>
+      </c>
+      <c r="D112" t="s">
+        <v>845</v>
+      </c>
+      <c r="E112" t="s">
+        <v>846</v>
+      </c>
+      <c r="F112" t="s">
+        <v>847</v>
+      </c>
+      <c r="G112" t="s">
+        <v>113</v>
+      </c>
+      <c r="H112" t="s">
+        <v>848</v>
+      </c>
+      <c r="I112" t="s">
+        <v>18</v>
+      </c>
+      <c r="J112" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>849</v>
+      </c>
+      <c r="B113" t="s">
+        <v>850</v>
+      </c>
+      <c r="C113" t="s">
+        <v>851</v>
+      </c>
+      <c r="D113" t="s">
+        <v>852</v>
+      </c>
+      <c r="E113" t="s">
+        <v>853</v>
+      </c>
+      <c r="F113" t="s">
+        <v>854</v>
+      </c>
+      <c r="G113" t="s">
+        <v>855</v>
+      </c>
+      <c r="H113" t="s">
+        <v>856</v>
+      </c>
+      <c r="I113" t="s">
+        <v>18</v>
+      </c>
+      <c r="J113" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>857</v>
+      </c>
+      <c r="B114" t="s">
+        <v>858</v>
+      </c>
+      <c r="C114" t="s">
+        <v>859</v>
+      </c>
+      <c r="D114" t="s">
+        <v>860</v>
+      </c>
+      <c r="E114" t="s">
+        <v>861</v>
+      </c>
+      <c r="F114" t="s">
+        <v>862</v>
+      </c>
+      <c r="G114" t="s">
+        <v>605</v>
+      </c>
+      <c r="H114" t="s">
+        <v>863</v>
+      </c>
+      <c r="I114" t="s">
+        <v>18</v>
+      </c>
+      <c r="J114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>864</v>
+      </c>
+      <c r="B115" t="s">
+        <v>865</v>
+      </c>
+      <c r="C115" t="s">
+        <v>866</v>
+      </c>
+      <c r="D115" t="s">
+        <v>867</v>
+      </c>
+      <c r="E115" t="s">
+        <v>868</v>
+      </c>
+      <c r="F115" t="s">
+        <v>869</v>
+      </c>
+      <c r="G115" t="s">
+        <v>255</v>
+      </c>
+      <c r="H115" t="s">
+        <v>870</v>
+      </c>
+      <c r="I115" t="s">
+        <v>18</v>
+      </c>
+      <c r="J115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>871</v>
+      </c>
+      <c r="B116" t="s">
+        <v>872</v>
+      </c>
+      <c r="C116" t="s">
+        <v>873</v>
+      </c>
+      <c r="D116" t="s">
+        <v>874</v>
+      </c>
+      <c r="E116" t="s">
+        <v>875</v>
+      </c>
+      <c r="F116" t="s">
+        <v>876</v>
+      </c>
+      <c r="G116" t="s">
+        <v>877</v>
+      </c>
+      <c r="H116" t="s">
+        <v>878</v>
+      </c>
+      <c r="I116" t="s">
+        <v>18</v>
+      </c>
+      <c r="J116" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>879</v>
+      </c>
+      <c r="B117" t="s">
+        <v>880</v>
+      </c>
+      <c r="C117" t="s">
+        <v>881</v>
+      </c>
+      <c r="D117" t="s">
+        <v>882</v>
+      </c>
+      <c r="E117" t="s">
+        <v>883</v>
+      </c>
+      <c r="F117" t="s">
+        <v>884</v>
+      </c>
+      <c r="G117" t="s">
+        <v>183</v>
+      </c>
+      <c r="H117" t="s">
+        <v>885</v>
+      </c>
+      <c r="I117" t="s">
+        <v>18</v>
+      </c>
+      <c r="J117" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>886</v>
+      </c>
+      <c r="B118" t="s">
+        <v>887</v>
+      </c>
+      <c r="C118" t="s">
+        <v>888</v>
+      </c>
+      <c r="D118" t="s">
+        <v>889</v>
+      </c>
+      <c r="E118" t="s">
+        <v>890</v>
+      </c>
+      <c r="F118" t="s">
+        <v>891</v>
+      </c>
+      <c r="G118" t="s">
+        <v>207</v>
+      </c>
+      <c r="H118" t="s">
+        <v>892</v>
+      </c>
+      <c r="I118" t="s">
+        <v>18</v>
+      </c>
+      <c r="J118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>893</v>
+      </c>
+      <c r="B119" t="s">
+        <v>894</v>
+      </c>
+      <c r="C119" t="s">
+        <v>895</v>
+      </c>
+      <c r="D119" t="s">
+        <v>896</v>
+      </c>
+      <c r="E119" t="s">
+        <v>897</v>
+      </c>
+      <c r="F119" t="s">
+        <v>898</v>
+      </c>
+      <c r="G119" t="s">
+        <v>354</v>
+      </c>
+      <c r="H119" t="s">
+        <v>899</v>
+      </c>
+      <c r="I119" t="s">
+        <v>18</v>
+      </c>
+      <c r="J119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>900</v>
+      </c>
+      <c r="B120" t="s">
+        <v>901</v>
+      </c>
+      <c r="C120" t="s">
+        <v>902</v>
+      </c>
+      <c r="D120" t="s">
+        <v>903</v>
+      </c>
+      <c r="E120" t="s">
+        <v>904</v>
+      </c>
+      <c r="F120" t="s">
+        <v>905</v>
+      </c>
+      <c r="G120" t="s">
+        <v>906</v>
+      </c>
+      <c r="H120" t="s">
+        <v>907</v>
+      </c>
+      <c r="I120" t="s">
+        <v>18</v>
+      </c>
+      <c r="J120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>908</v>
+      </c>
+      <c r="B121" t="s">
+        <v>909</v>
+      </c>
+      <c r="C121" t="s">
+        <v>910</v>
+      </c>
+      <c r="D121" t="s">
+        <v>911</v>
+      </c>
+      <c r="E121" t="s">
+        <v>912</v>
+      </c>
+      <c r="F121" t="s">
+        <v>913</v>
+      </c>
+      <c r="G121" t="s">
+        <v>472</v>
+      </c>
+      <c r="H121" t="s">
+        <v>914</v>
+      </c>
+      <c r="I121" t="s">
+        <v>18</v>
+      </c>
+      <c r="J121" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>915</v>
+      </c>
+      <c r="B122" t="s">
+        <v>916</v>
+      </c>
+      <c r="C122" t="s">
+        <v>917</v>
+      </c>
+      <c r="D122" t="s">
+        <v>918</v>
+      </c>
+      <c r="E122" t="s">
+        <v>919</v>
+      </c>
+      <c r="F122" t="s">
+        <v>920</v>
+      </c>
+      <c r="G122" t="s">
+        <v>128</v>
+      </c>
+      <c r="H122" t="s">
+        <v>921</v>
+      </c>
+      <c r="I122" t="s">
+        <v>18</v>
+      </c>
+      <c r="J122" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>922</v>
+      </c>
+      <c r="B123" t="s">
+        <v>923</v>
+      </c>
+      <c r="C123" t="s">
+        <v>924</v>
+      </c>
+      <c r="D123" t="s">
+        <v>925</v>
+      </c>
+      <c r="E123" t="s">
+        <v>926</v>
+      </c>
+      <c r="F123" t="s">
+        <v>927</v>
+      </c>
+      <c r="G123" t="s">
+        <v>407</v>
+      </c>
+      <c r="H123" t="s">
+        <v>928</v>
+      </c>
+      <c r="I123" t="s">
+        <v>18</v>
+      </c>
+      <c r="J123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>929</v>
+      </c>
+      <c r="B124" t="s">
+        <v>930</v>
+      </c>
+      <c r="C124" t="s">
+        <v>931</v>
+      </c>
+      <c r="D124" t="s">
+        <v>932</v>
+      </c>
+      <c r="E124" t="s">
+        <v>933</v>
+      </c>
+      <c r="F124" t="s">
+        <v>934</v>
+      </c>
+      <c r="G124" t="s">
+        <v>175</v>
+      </c>
+      <c r="H124" t="s">
+        <v>935</v>
+      </c>
+      <c r="I124" t="s">
+        <v>18</v>
+      </c>
+      <c r="J124" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>936</v>
+      </c>
+      <c r="B125" t="s">
+        <v>937</v>
+      </c>
+      <c r="C125" t="s">
+        <v>938</v>
+      </c>
+      <c r="D125" t="s">
+        <v>939</v>
+      </c>
+      <c r="E125" t="s">
+        <v>940</v>
+      </c>
+      <c r="F125" t="s">
+        <v>941</v>
+      </c>
+      <c r="G125" t="s">
+        <v>144</v>
+      </c>
+      <c r="H125" t="s">
+        <v>942</v>
+      </c>
+      <c r="I125" t="s">
+        <v>18</v>
+      </c>
+      <c r="J125" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>943</v>
+      </c>
+      <c r="B126" t="s">
+        <v>944</v>
+      </c>
+      <c r="C126" t="s">
+        <v>945</v>
+      </c>
+      <c r="D126" t="s">
+        <v>946</v>
+      </c>
+      <c r="E126" t="s">
+        <v>947</v>
+      </c>
+      <c r="F126" t="s">
+        <v>948</v>
+      </c>
+      <c r="G126" t="s">
+        <v>346</v>
+      </c>
+      <c r="H126" t="s">
+        <v>949</v>
+      </c>
+      <c r="I126" t="s">
+        <v>18</v>
+      </c>
+      <c r="J126" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>950</v>
+      </c>
+      <c r="B127" t="s">
+        <v>951</v>
+      </c>
+      <c r="C127" t="s">
+        <v>952</v>
+      </c>
+      <c r="D127" t="s">
+        <v>953</v>
+      </c>
+      <c r="E127" t="s">
+        <v>954</v>
+      </c>
+      <c r="F127" t="s">
+        <v>955</v>
+      </c>
+      <c r="G127" t="s">
+        <v>956</v>
+      </c>
+      <c r="H127" t="s">
+        <v>957</v>
+      </c>
+      <c r="I127" t="s">
+        <v>18</v>
+      </c>
+      <c r="J127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>958</v>
+      </c>
+      <c r="B128" t="s">
+        <v>959</v>
+      </c>
+      <c r="C128" t="s">
+        <v>960</v>
+      </c>
+      <c r="D128" t="s">
+        <v>961</v>
+      </c>
+      <c r="E128" t="s">
+        <v>962</v>
+      </c>
+      <c r="F128" t="s">
+        <v>963</v>
+      </c>
+      <c r="G128" t="s">
+        <v>429</v>
+      </c>
+      <c r="H128" t="s">
+        <v>964</v>
+      </c>
+      <c r="I128" t="s">
+        <v>18</v>
+      </c>
+      <c r="J128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>965</v>
+      </c>
+      <c r="B129" t="s">
+        <v>966</v>
+      </c>
+      <c r="C129" t="s">
+        <v>967</v>
+      </c>
+      <c r="D129" t="s">
+        <v>968</v>
+      </c>
+      <c r="E129" t="s">
+        <v>969</v>
+      </c>
+      <c r="F129" t="s">
+        <v>970</v>
+      </c>
+      <c r="G129" t="s">
+        <v>307</v>
+      </c>
+      <c r="H129" t="s">
+        <v>971</v>
+      </c>
+      <c r="I129" t="s">
+        <v>18</v>
+      </c>
+      <c r="J129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>972</v>
+      </c>
+      <c r="B130" t="s">
+        <v>973</v>
+      </c>
+      <c r="C130" t="s">
+        <v>974</v>
+      </c>
+      <c r="D130" t="s">
+        <v>975</v>
+      </c>
+      <c r="E130" t="s">
+        <v>976</v>
+      </c>
+      <c r="F130" t="s">
+        <v>977</v>
+      </c>
+      <c r="G130" t="s">
+        <v>136</v>
+      </c>
+      <c r="H130" t="s">
+        <v>978</v>
+      </c>
+      <c r="I130" t="s">
+        <v>18</v>
+      </c>
+      <c r="J130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>979</v>
+      </c>
+      <c r="B131" t="s">
+        <v>980</v>
+      </c>
+      <c r="C131" t="s">
+        <v>981</v>
+      </c>
+      <c r="D131" t="s">
+        <v>982</v>
+      </c>
+      <c r="E131" t="s">
+        <v>983</v>
+      </c>
+      <c r="F131" t="s">
+        <v>984</v>
+      </c>
+      <c r="G131" t="s">
+        <v>985</v>
+      </c>
+      <c r="H131" t="s">
+        <v>986</v>
+      </c>
+      <c r="I131" t="s">
+        <v>18</v>
+      </c>
+      <c r="J131" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>987</v>
+      </c>
+      <c r="B132" t="s">
+        <v>988</v>
+      </c>
+      <c r="C132" t="s">
+        <v>989</v>
+      </c>
+      <c r="D132" t="s">
+        <v>990</v>
+      </c>
+      <c r="E132" t="s">
+        <v>991</v>
+      </c>
+      <c r="F132" t="s">
+        <v>992</v>
+      </c>
+      <c r="G132" t="s">
+        <v>223</v>
+      </c>
+      <c r="H132" t="s">
+        <v>993</v>
+      </c>
+      <c r="I132" t="s">
+        <v>18</v>
+      </c>
+      <c r="J132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>994</v>
+      </c>
+      <c r="B133" t="s">
+        <v>995</v>
+      </c>
+      <c r="C133" t="s">
+        <v>996</v>
+      </c>
+      <c r="D133" t="s">
+        <v>997</v>
+      </c>
+      <c r="E133" t="s">
+        <v>998</v>
+      </c>
+      <c r="F133" t="s">
+        <v>999</v>
+      </c>
+      <c r="G133" t="s">
+        <v>183</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I133" t="s">
+        <v>18</v>
+      </c>
+      <c r="J133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G134" t="s">
+        <v>787</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I134" t="s">
+        <v>18</v>
+      </c>
+      <c r="J134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G135" t="s">
+        <v>331</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I135" t="s">
+        <v>18</v>
+      </c>
+      <c r="J135" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G136" t="s">
+        <v>73</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I136" t="s">
+        <v>18</v>
+      </c>
+      <c r="J136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G137" t="s">
+        <v>152</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I137" t="s">
+        <v>18</v>
+      </c>
+      <c r="J137" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G138" t="s">
+        <v>666</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I138" t="s">
+        <v>18</v>
+      </c>
+      <c r="J138" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G139" t="s">
+        <v>57</v>
+      </c>
+      <c r="H139" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I139" t="s">
+        <v>18</v>
+      </c>
+      <c r="J139" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G140" t="s">
+        <v>704</v>
+      </c>
+      <c r="H140" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I140" t="s">
+        <v>18</v>
+      </c>
+      <c r="J140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G141" t="s">
+        <v>956</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I141" t="s">
+        <v>18</v>
+      </c>
+      <c r="J141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G142" t="s">
+        <v>855</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I142" t="s">
+        <v>18</v>
+      </c>
+      <c r="J142" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F143" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I143" t="s">
+        <v>18</v>
+      </c>
+      <c r="J143" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G144" t="s">
+        <v>105</v>
+      </c>
+      <c r="H144" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I144" t="s">
+        <v>18</v>
+      </c>
+      <c r="J144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G145" t="s">
+        <v>644</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I145" t="s">
+        <v>18</v>
+      </c>
+      <c r="J145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F146" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I146" t="s">
+        <v>18</v>
+      </c>
+      <c r="J146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I147" t="s">
+        <v>18</v>
+      </c>
+      <c r="J147" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F148" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I148" t="s">
+        <v>18</v>
+      </c>
+      <c r="J148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G149" t="s">
+        <v>696</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I149" t="s">
+        <v>18</v>
+      </c>
+      <c r="J149" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G150" t="s">
+        <v>712</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I150" t="s">
+        <v>18</v>
+      </c>
+      <c r="J150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G151" t="s">
+        <v>704</v>
+      </c>
+      <c r="H151" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I151" t="s">
+        <v>18</v>
+      </c>
+      <c r="J151" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G152" t="s">
+        <v>73</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I152" t="s">
+        <v>18</v>
+      </c>
+      <c r="J152" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G153" t="s">
+        <v>369</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I153" t="s">
+        <v>18</v>
+      </c>
+      <c r="J153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G154" t="s">
+        <v>518</v>
+      </c>
+      <c r="H154" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I154" t="s">
+        <v>18</v>
+      </c>
+      <c r="J154" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I155" t="s">
+        <v>18</v>
+      </c>
+      <c r="J155" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G156" t="s">
+        <v>247</v>
+      </c>
+      <c r="H156" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I156" t="s">
+        <v>18</v>
+      </c>
+      <c r="J156" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G157" t="s">
+        <v>285</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I157" t="s">
+        <v>18</v>
+      </c>
+      <c r="J157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F158" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G158" t="s">
+        <v>636</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I158" t="s">
+        <v>18</v>
+      </c>
+      <c r="J158" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F159" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G159" t="s">
+        <v>605</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1186</v>
+      </c>
+      <c r="I159" t="s">
+        <v>18</v>
+      </c>
+      <c r="J159" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G160" t="s">
+        <v>480</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I160" t="s">
+        <v>18</v>
+      </c>
+      <c r="J160" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G161" t="s">
+        <v>771</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I161" t="s">
+        <v>18</v>
+      </c>
+      <c r="J161" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G162" t="s">
+        <v>73</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I162" t="s">
+        <v>18</v>
+      </c>
+      <c r="J162" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G163" t="s">
+        <v>73</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I163" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J163" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G164" t="s">
+        <v>763</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1222</v>
+      </c>
+      <c r="I164" t="s">
+        <v>18</v>
+      </c>
+      <c r="J164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I165" t="s">
+        <v>18</v>
+      </c>
+      <c r="J165" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G166" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I166" t="s">
+        <v>18</v>
+      </c>
+      <c r="J166" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
